--- a/Константиновка/Организации.xlsx
+++ b/Константиновка/Организации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E8752-2F2D-460F-A0FD-F0DEC5DB3633}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAD3EE-5301-406F-9DE9-4F5059E3E443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Администрация!$A$1:$E$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -333,15 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -399,11 +391,20 @@
     <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -692,28 +693,28 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="30">
+      <c r="D1" s="32"/>
+      <c r="E1" s="27">
         <f ca="1">NOW()</f>
-        <v>43969.019116782409</v>
+        <v>43969.362347800925</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -723,42 +724,42 @@
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="7"/>
@@ -768,21 +769,21 @@
       <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7"/>
@@ -790,78 +791,78 @@
         <v>17</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="7"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="13"/>
     </row>
     <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="7"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="16"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="9"/>
       <c r="B15" s="7"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="16"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -869,61 +870,61 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="15"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="15"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="15"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -940,10 +941,11 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId5"/>
-  <webPublishItems count="3">
+  <webPublishItems count="4">
     <webPublishItem id="5840" divId="Организации_5840" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
     <webPublishItem id="4815" divId="Организации_4815" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
     <webPublishItem id="13679" divId="Организации_13679" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
+    <webPublishItem id="1123" divId="Организации_1123" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/Константиновка/Организации.xlsx
+++ b/Константиновка/Организации.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CAD3EE-5301-406F-9DE9-4F5059E3E443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24E97B-CCE7-49D2-8112-EA8EB8B3BF25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,24 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -164,10 +146,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="7">
@@ -308,102 +321,102 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -698,78 +711,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="32" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="27">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9">
         <f ca="1">NOW()</f>
-        <v>43969.362347800925</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+        <v>43969.370215277777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="1">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21">
         <v>84163991508</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -777,154 +790,154 @@
       <c r="A6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="21"/>
+      <c r="E7" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="13"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="13"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="13"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="13"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="13"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="13"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="13"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -941,11 +954,12 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId5"/>
-  <webPublishItems count="4">
+  <webPublishItems count="5">
     <webPublishItem id="5840" divId="Организации_5840" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
     <webPublishItem id="4815" divId="Организации_4815" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
     <webPublishItem id="13679" divId="Организации_13679" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
     <webPublishItem id="1123" divId="Организации_1123" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
+    <webPublishItem id="13899" divId="Организации_13899" sourceType="printArea" destinationFile="C:\Users\user\Documents\GitHub\Smart_garden\Константиновка\Организации.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>